--- a/BLL/new.xlsx
+++ b/BLL/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCCCA7-1745-40D4-BD51-732B22A8B331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872BC24C-71F4-42C3-84AC-302665EF4402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="9" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="831" activeTab="10" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1 (2)" sheetId="13" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Repeat" sheetId="9" r:id="rId8"/>
     <sheet name="TimeForCategory" sheetId="2" r:id="rId9"/>
     <sheet name="List1" sheetId="12" r:id="rId10"/>
-    <sheet name="גיליון3" sheetId="14" r:id="rId11"/>
+    <sheet name="Equipment" sheetId="14" r:id="rId11"/>
     <sheet name="גיליון2" sheetId="15" r:id="rId12"/>
+    <sheet name="MuscleType" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="61">
   <si>
     <t>רגליים</t>
   </si>
@@ -179,31 +180,13 @@
     <t>לכל מטרה יש דף כזה והשם של הדף הוא שם ??המטרה +LIST</t>
   </si>
   <si>
-    <t>מתחיל</t>
-  </si>
-  <si>
     <t>רמה</t>
   </si>
   <si>
     <t>ציוד</t>
   </si>
   <si>
-    <t>כמה תרגילים</t>
-  </si>
-  <si>
     <t>מכשיר</t>
-  </si>
-  <si>
-    <t>מתקדם</t>
-  </si>
-  <si>
-    <t>תרגיל 1</t>
-  </si>
-  <si>
-    <t>2 תרגילים</t>
-  </si>
-  <si>
-    <t>3 תרגילים</t>
   </si>
   <si>
     <t>רגל קדמית</t>
@@ -213,6 +196,39 @@
   </si>
   <si>
     <t>אגן</t>
+  </si>
+  <si>
+    <t>דאמבלים</t>
+  </si>
+  <si>
+    <t>משקל גוף</t>
+  </si>
+  <si>
+    <t>מוט</t>
+  </si>
+  <si>
+    <t>מרחיקי ירך</t>
+  </si>
+  <si>
+    <t>מקרבי ירך</t>
+  </si>
+  <si>
+    <t>תת שריר</t>
+  </si>
+  <si>
+    <t>שריר</t>
+  </si>
+  <si>
+    <t>שוק</t>
+  </si>
+  <si>
+    <t>סוג שריר</t>
+  </si>
+  <si>
+    <t>מורכב</t>
+  </si>
+  <si>
+    <t>מבודד</t>
   </si>
 </sst>
 </file>
@@ -578,7 +594,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1990,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD0EDE-1A13-4DA2-A472-0AD55A18B868}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView rightToLeft="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2131,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2171,7 +2187,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2227,7 +2243,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2283,7 +2299,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -2339,7 +2355,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2395,7 +2411,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2451,7 +2467,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2507,7 +2523,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2563,7 +2579,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2619,7 +2635,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -2675,7 +2691,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2731,7 +2747,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2787,7 +2803,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2843,7 +2859,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2899,7 +2915,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2955,7 +2971,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -3011,7 +3027,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3067,7 +3083,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -3123,7 +3139,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -3179,7 +3195,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -3235,7 +3251,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -3291,7 +3307,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -3347,7 +3363,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -3403,7 +3419,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -3464,45 +3480,60 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13470785-D87F-491B-B74E-0BC7FC860F41}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3512,61 +3543,134 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A7A5-7B43-4486-AC36-56D620E9E519}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
       <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308222F-6CEE-44C7-9AF4-83E95D79D5E4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4040,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A7414C-2518-439C-B3E9-3FAAF40161C8}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4068,7 +4172,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4085,7 +4189,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4102,7 +4206,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4119,7 +4223,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4136,7 +4240,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -4153,7 +4257,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -4170,7 +4274,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -4187,7 +4291,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -4204,7 +4308,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -4221,7 +4325,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -4238,7 +4342,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4255,7 +4359,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4272,7 +4376,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4289,7 +4393,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4306,7 +4410,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -4323,7 +4427,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4340,7 +4444,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -4357,7 +4461,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -4374,7 +4478,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4391,7 +4495,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4408,7 +4512,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -4425,7 +4529,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -4442,7 +4546,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -4459,7 +4563,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -4476,7 +4580,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -4493,7 +4597,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -4510,7 +4614,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -4527,7 +4631,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -4544,7 +4648,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -4561,7 +4665,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4578,7 +4682,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -4595,7 +4699,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -4612,7 +4716,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -4629,7 +4733,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -4646,7 +4750,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -4663,7 +4767,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -4680,7 +4784,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -4697,7 +4801,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -4714,7 +4818,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4731,7 +4835,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4748,7 +4852,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -4765,7 +4869,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -4782,7 +4886,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -4799,7 +4903,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -4816,7 +4920,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -4833,7 +4937,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -4850,7 +4954,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -4867,7 +4971,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -4891,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D777455-EB31-4228-8ADB-DB45891FB62D}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView rightToLeft="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4916,7 +5020,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4933,7 +5037,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4950,7 +5054,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4967,7 +5071,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4984,7 +5088,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -5001,7 +5105,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5018,7 +5122,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -5035,7 +5139,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -5052,7 +5156,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -5069,7 +5173,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -5086,7 +5190,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -5103,7 +5207,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -5120,7 +5224,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -5137,7 +5241,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5154,7 +5258,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -5171,7 +5275,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -5188,7 +5292,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -5205,7 +5309,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -5222,7 +5326,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -5239,7 +5343,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -5256,7 +5360,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -5273,7 +5377,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -5290,7 +5394,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -5307,7 +5411,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -5324,7 +5428,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -5341,7 +5445,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -5358,7 +5462,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -5375,7 +5479,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -5392,7 +5496,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -5409,7 +5513,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -5426,7 +5530,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -5443,7 +5547,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -5460,7 +5564,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -5477,7 +5581,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -5494,7 +5598,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -5511,7 +5615,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -5528,7 +5632,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -5545,7 +5649,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -5562,7 +5666,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -5579,7 +5683,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -5596,7 +5700,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -5613,7 +5717,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -5630,7 +5734,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -5647,7 +5751,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -5664,7 +5768,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -5681,7 +5785,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -5698,7 +5802,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -5715,7 +5819,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -5850,7 +5954,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6248,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6175,7 +6279,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6192,7 +6296,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6209,7 +6313,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6226,7 +6330,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6244,7 +6348,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6261,7 +6365,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -6278,7 +6382,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -6295,7 +6399,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -6312,7 +6416,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -6329,7 +6433,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>5</v>

--- a/BLL/new.xlsx
+++ b/BLL/new.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872BC24C-71F4-42C3-84AC-302665EF4402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C4B2A-626E-4A6A-BD79-AFE3A76E1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="831" activeTab="10" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1 (2)" sheetId="13" r:id="rId1"/>
-    <sheet name="List" sheetId="1" r:id="rId2"/>
-    <sheet name="Amount" sheetId="8" r:id="rId3"/>
-    <sheet name="גיליון1" sheetId="11" r:id="rId4"/>
-    <sheet name="MuscleSize" sheetId="6" r:id="rId5"/>
-    <sheet name="Size" sheetId="5" r:id="rId6"/>
-    <sheet name="TimeForCategory1" sheetId="10" r:id="rId7"/>
-    <sheet name="Repeat" sheetId="9" r:id="rId8"/>
-    <sheet name="TimeForCategory" sheetId="2" r:id="rId9"/>
-    <sheet name="List1" sheetId="12" r:id="rId10"/>
-    <sheet name="Equipment" sheetId="14" r:id="rId11"/>
-    <sheet name="גיליון2" sheetId="15" r:id="rId12"/>
-    <sheet name="MuscleType" sheetId="16" r:id="rId13"/>
+    <sheet name="MuscleType (2)" sheetId="17" r:id="rId1"/>
+    <sheet name="MuscleType" sheetId="16" r:id="rId2"/>
+    <sheet name="NeedSubMuscle" sheetId="18" r:id="rId3"/>
+    <sheet name="List1 (2)" sheetId="13" r:id="rId4"/>
+    <sheet name="List" sheetId="1" r:id="rId5"/>
+    <sheet name="Amount" sheetId="8" r:id="rId6"/>
+    <sheet name="גיליון1" sheetId="11" r:id="rId7"/>
+    <sheet name="MuscleSize" sheetId="6" r:id="rId8"/>
+    <sheet name="Size" sheetId="5" r:id="rId9"/>
+    <sheet name="TimeForCategory1" sheetId="10" r:id="rId10"/>
+    <sheet name="Repeat" sheetId="9" r:id="rId11"/>
+    <sheet name="TimeForCategory" sheetId="2" r:id="rId12"/>
+    <sheet name="List1" sheetId="12" r:id="rId13"/>
+    <sheet name="Equipment" sheetId="14" r:id="rId14"/>
+    <sheet name="גיליון2" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="61">
   <si>
     <t>רגליים</t>
   </si>
@@ -590,6 +592,2446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916D66E-7726-42A5-B83A-C5381E725A5C}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D77C5D-CC62-422B-B731-211177640110}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254DA59-7831-4DBD-AF9B-B6B0FB60664F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923399F-C972-4C66-B8A4-12BE28FF010B}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD0EDE-1A13-4DA2-A472-0AD55A18B868}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="4" max="18" width="7.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13470785-D87F-491B-B74E-0BC7FC860F41}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A7A5-7B43-4486-AC36-56D620E9E519}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308222F-6CEE-44C7-9AF4-83E95D79D5E4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C64755-4EC2-4959-9A48-77A6C8D44EA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FE82F2-9C4B-46A1-B402-97F8A772F7BD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -2002,1683 +4444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD0EDE-1A13-4DA2-A472-0AD55A18B868}">
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="4" max="18" width="7.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13470785-D87F-491B-B74E-0BC7FC860F41}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A7A5-7B43-4486-AC36-56D620E9E519}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308222F-6CEE-44C7-9AF4-83E95D79D5E4}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C657B14-6A5F-47BE-8CC0-7E465DD3F72B}">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -4140,7 +4906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A7414C-2518-439C-B3E9-3FAAF40161C8}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -4991,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D777455-EB31-4228-8ADB-DB45891FB62D}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -5839,7 +6605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76AB4E0-3368-4442-82DC-A2119E5359A1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -5919,7 +6685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094C079-5AB0-4493-98D1-01DC38AEB033}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -5947,508 +6713,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D77C5D-CC62-422B-B731-211177640110}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254DA59-7831-4DBD-AF9B-B6B0FB60664F}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923399F-C972-4C66-B8A4-12BE28FF010B}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>90</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BLL/new.xlsx
+++ b/BLL/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C4B2A-626E-4A6A-BD79-AFE3A76E1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECFAAD-5346-44D3-AEC2-49E454D33DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="2" activeTab="13" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
   </bookViews>
   <sheets>
     <sheet name="MuscleType (2)" sheetId="17" r:id="rId1"/>
@@ -2745,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13470785-D87F-491B-B74E-0BC7FC860F41}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2801,6 +2801,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2879,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308222F-6CEE-44C7-9AF4-83E95D79D5E4}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5761,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D777455-EB31-4228-8ADB-DB45891FB62D}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BLL/new.xlsx
+++ b/BLL/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECFAAD-5346-44D3-AEC2-49E454D33DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97656ECD-EE57-4111-A1A6-B0A9B9497169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="2" activeTab="13" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="2" activeTab="14" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
   </bookViews>
   <sheets>
     <sheet name="MuscleType (2)" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="TimeForCategory" sheetId="2" r:id="rId12"/>
     <sheet name="List1" sheetId="12" r:id="rId13"/>
     <sheet name="Equipment" sheetId="14" r:id="rId14"/>
-    <sheet name="גיליון2" sheetId="15" r:id="rId15"/>
+    <sheet name="OrderList" sheetId="19" r:id="rId15"/>
+    <sheet name="גיליון2" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="61">
   <si>
     <t>רגליים</t>
   </si>
@@ -2745,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13470785-D87F-491B-B74E-0BC7FC860F41}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2806,6 +2807,120 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA160C-4692-4F6E-AFFD-22B438FE4A41}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E0A7A5-7B43-4486-AC36-56D620E9E519}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3037,7 +3152,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4450,7 +4565,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="77" workbookViewId="0">
-      <selection sqref="A1:P13"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BLL/new.xlsx
+++ b/BLL/new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\תכנות\שנה ב\פוריקט שנתי\C#\פרויקט חדש 20.04\Gym_Api\BLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97656ECD-EE57-4111-A1A6-B0A9B9497169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AA1BC-67BA-441B-B801-8F9044AF0591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="2" activeTab="14" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="3" activeTab="12" xr2:uid="{587815B1-586A-4800-8953-55F13164A91A}"/>
   </bookViews>
   <sheets>
     <sheet name="MuscleType (2)" sheetId="17" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="61">
   <si>
     <t>רגליים</t>
   </si>
@@ -597,7 +597,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1268,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD0EDE-1A13-4DA2-A472-0AD55A18B868}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1622,7 +1622,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1958,10 +1958,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2006,18 +2006,18 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2038,28 +2038,28 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -2126,55 +2126,55 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -2206,25 +2206,25 @@
         <v>2</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>6</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2265,22 +2265,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>6</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2294,34 +2294,34 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -2406,7 +2406,7 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2542,19 +2542,19 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2678,62 +2678,6 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
         <v>1</v>
       </c>
     </row>
@@ -2808,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA160C-4692-4F6E-AFFD-22B438FE4A41}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2819,99 +2763,128 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2925,7 +2898,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C657B14-6A5F-47BE-8CC0-7E465DD3F72B}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="77" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="Q1" zoomScale="77" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -6726,7 +6699,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6759,7 +6732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -6767,7 +6740,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
